--- a/console/Networking/agExcel/components/autoScaling/autoScalingMain.xlsx
+++ b/console/Networking/agExcel/components/autoScaling/autoScalingMain.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/components/autoScaling/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7B3C0F-F74F-0942-B304-8ADE26100666}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -361,17 +367,18 @@
     <t>Disable Auto Scaling</t>
   </si>
   <si>
-    <t>'Can be disabled in normal status only'</t>
-  </si>
-  <si>
     <t>'Notification'</t>
+  </si>
+  <si>
+    <t>Only can disable in normal status'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -414,12 +421,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -760,22 +770,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="69.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.1640625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="59.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="59.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="57">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -797,7 +807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="59.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="19">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -808,7 +818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="59.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="19">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -819,7 +829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="59.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="19">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -830,7 +840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="59.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="19">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -841,7 +851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="59.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="19">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -852,7 +862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="59.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="19">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -863,7 +873,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="59.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="19">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -874,7 +884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="59.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="19">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -885,7 +895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="59.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="19">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -896,18 +906,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="59.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="19">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="59.25" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -915,7 +925,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
